--- a/data/极限星等.xlsx
+++ b/data/极限星等.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wangyw15\Desktop\2023E\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD3AD1C-FABF-422A-8B94-4E48111D4BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D0C9AB-FFD5-4780-8F2B-0EBABE97D056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1250" windowWidth="21300" windowHeight="12430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1360" yWindow="1250" windowWidth="21300" windowHeight="12430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>New York</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Missouri</t>
   </si>
 </sst>
 </file>
@@ -376,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -456,6 +468,38 @@
         <v>7.3</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
